--- a/autumn/xls/rate_birth_2014.xlsx
+++ b/autumn/xls/rate_birth_2014.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swas0001\unc_storage_AuTuMN\autumn\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
   </bookViews>
@@ -959,9 +964,6 @@
     <t>Andorra</t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
@@ -1380,12 +1382,15 @@
   </si>
   <si>
     <t>Tunisia</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1427,6 +1432,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1720,7 +1728,7 @@
   <dimension ref="A1:P220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,13 +1744,13 @@
         <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="D1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E1" t="s">
         <v>266</v>
@@ -1763,7 +1771,7 @@
         <v>236</v>
       </c>
       <c r="K1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L1" t="s">
         <v>304</v>
@@ -1772,10 +1780,10 @@
         <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P1" t="s">
         <v>214</v>
@@ -1789,7 +1797,7 @@
         <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
         <v>267</v>
@@ -2239,7 +2247,7 @@
         <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -2289,10 +2297,10 @@
         <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E12">
         <v>15.4</v>
@@ -2389,7 +2397,7 @@
         <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D14" t="s">
         <v>150</v>
@@ -2489,7 +2497,7 @@
         <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D16" t="s">
         <v>189</v>
@@ -2539,7 +2547,7 @@
         <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" t="s">
         <v>206</v>
@@ -2639,10 +2647,10 @@
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E19">
         <v>13.9</v>
@@ -2689,10 +2697,10 @@
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20">
         <v>12.4</v>
@@ -2739,10 +2747,10 @@
         <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E21">
         <v>35.862000000000002</v>
@@ -2792,7 +2800,7 @@
         <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E22">
         <v>46.302</v>
@@ -2842,7 +2850,7 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E23">
         <v>14.6</v>
@@ -2939,7 +2947,7 @@
         <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
@@ -2989,10 +2997,10 @@
         <v>167</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E26">
         <v>14.664</v>
@@ -3089,7 +3097,7 @@
         <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D28" t="s">
         <v>152</v>
@@ -3289,7 +3297,7 @@
         <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D32" t="s">
         <v>171</v>
@@ -3392,7 +3400,7 @@
         <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E34">
         <v>42.366999999999997</v>
@@ -3489,7 +3497,7 @@
         <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D36" t="s">
         <v>110</v>
@@ -3539,7 +3547,7 @@
         <v>167</v>
       </c>
       <c r="C37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D37" t="s">
         <v>101</v>
@@ -3692,7 +3700,7 @@
         <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E40">
         <v>12.343</v>
@@ -3739,7 +3747,7 @@
         <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D41" t="s">
         <v>201</v>
@@ -3839,7 +3847,7 @@
         <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D43" t="s">
         <v>249</v>
@@ -3889,7 +3897,7 @@
         <v>167</v>
       </c>
       <c r="C44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D44" t="s">
         <v>123</v>
@@ -3992,7 +4000,7 @@
         <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E46">
         <v>38.21</v>
@@ -4139,7 +4147,7 @@
         <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -4192,7 +4200,7 @@
         <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E50">
         <v>16.79</v>
@@ -4239,7 +4247,7 @@
         <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D51" t="s">
         <v>230</v>
@@ -4292,7 +4300,7 @@
         <v>168</v>
       </c>
       <c r="D52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E52">
         <v>19.047999999999998</v>
@@ -4492,7 +4500,7 @@
         <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E56">
         <v>23</v>
@@ -4642,7 +4650,7 @@
         <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E59">
         <v>33.347999999999999</v>
@@ -4692,7 +4700,7 @@
         <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E60">
         <v>30.904</v>
@@ -4892,7 +4900,7 @@
         <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E64">
         <v>47.503999999999998</v>
@@ -4939,10 +4947,10 @@
         <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E65">
         <v>19.899999999999999</v>
@@ -4992,7 +5000,7 @@
         <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E66">
         <v>28.890999999999998</v>
@@ -5042,7 +5050,7 @@
         <v>120</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E67">
         <v>13.1</v>
@@ -5089,10 +5097,10 @@
         <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E68">
         <v>13.4</v>
@@ -5242,7 +5250,7 @@
         <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E71">
         <v>47.469000000000001</v>
@@ -5439,10 +5447,10 @@
         <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E75">
         <v>10</v>
@@ -5589,7 +5597,7 @@
         <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D78" t="s">
         <v>158</v>
@@ -5939,7 +5947,7 @@
         <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D85" t="s">
         <v>198</v>
@@ -5989,7 +5997,7 @@
         <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D86" t="s">
         <v>205</v>
@@ -6042,7 +6050,7 @@
         <v>58</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E87">
         <v>18.7</v>
@@ -6089,7 +6097,7 @@
         <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D88" t="s">
         <v>159</v>
@@ -6142,7 +6150,7 @@
         <v>241</v>
       </c>
       <c r="D89" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E89">
         <v>25.812999999999999</v>
@@ -6242,7 +6250,7 @@
         <v>133</v>
       </c>
       <c r="D91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E91">
         <v>37.704000000000001</v>
@@ -6342,7 +6350,7 @@
         <v>291</v>
       </c>
       <c r="D93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E93" t="s">
         <v>288</v>
@@ -6392,7 +6400,7 @@
         <v>157</v>
       </c>
       <c r="D94" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E94">
         <v>22.2</v>
@@ -6439,7 +6447,7 @@
         <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D95" t="s">
         <v>278</v>
@@ -6492,7 +6500,7 @@
         <v>309</v>
       </c>
       <c r="D96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E96">
         <v>25.2</v>
@@ -6589,10 +6597,10 @@
         <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E98">
         <v>34.436999999999998</v>
@@ -6639,7 +6647,7 @@
         <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D99" t="s">
         <v>1</v>
@@ -6789,10 +6797,10 @@
         <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E102">
         <v>20.765000000000001</v>
@@ -6989,7 +6997,7 @@
         <v>167</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D106" t="s">
         <v>238</v>
@@ -7142,7 +7150,7 @@
         <v>25</v>
       </c>
       <c r="D109" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E109">
         <v>24.620999999999999</v>
@@ -7189,10 +7197,10 @@
         <v>167</v>
       </c>
       <c r="C110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E110">
         <v>35.235999999999997</v>
@@ -7289,7 +7297,7 @@
         <v>167</v>
       </c>
       <c r="C112" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D112" t="s">
         <v>195</v>
@@ -7389,10 +7397,10 @@
         <v>167</v>
       </c>
       <c r="C114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D114" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E114">
         <v>15.4</v>
@@ -7442,7 +7450,7 @@
         <v>185</v>
       </c>
       <c r="D115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E115">
         <v>12.9</v>
@@ -7589,7 +7597,7 @@
         <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D118" t="s">
         <v>111</v>
@@ -7639,7 +7647,7 @@
         <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D119" t="s">
         <v>97</v>
@@ -7692,7 +7700,7 @@
         <v>221</v>
       </c>
       <c r="D120" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E120">
         <v>28.218</v>
@@ -7892,7 +7900,7 @@
         <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E124" t="s">
         <v>288</v>
@@ -7989,7 +7997,7 @@
         <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D126" t="s">
         <v>252</v>
@@ -8039,10 +8047,10 @@
         <v>167</v>
       </c>
       <c r="C127" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D127" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E127">
         <v>28.687999999999999</v>
@@ -8092,7 +8100,7 @@
         <v>228</v>
       </c>
       <c r="D128" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E128">
         <v>34.003999999999998</v>
@@ -8142,7 +8150,7 @@
         <v>143</v>
       </c>
       <c r="D129" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E129">
         <v>18.573</v>
@@ -8192,7 +8200,7 @@
         <v>263</v>
       </c>
       <c r="D130" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E130" t="s">
         <v>288</v>
@@ -8292,7 +8300,7 @@
         <v>47</v>
       </c>
       <c r="D132" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E132">
         <v>16.486999999999998</v>
@@ -8339,7 +8347,7 @@
         <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D133" t="s">
         <v>42</v>
@@ -8392,7 +8400,7 @@
         <v>126</v>
       </c>
       <c r="D134" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E134">
         <v>45.509</v>
@@ -8442,7 +8450,7 @@
         <v>61</v>
       </c>
       <c r="D135" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E135">
         <v>26.986000000000001</v>
@@ -8489,7 +8497,7 @@
         <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D136" t="s">
         <v>117</v>
@@ -8592,7 +8600,7 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E138">
         <v>13.2</v>
@@ -8739,7 +8747,7 @@
         <v>167</v>
       </c>
       <c r="C141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D141" t="s">
         <v>213</v>
@@ -8789,10 +8797,10 @@
         <v>167</v>
       </c>
       <c r="C142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D142" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E142">
         <v>55.122</v>
@@ -8992,7 +9000,7 @@
         <v>258</v>
       </c>
       <c r="D146" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E146">
         <v>38.247</v>
@@ -9039,10 +9047,10 @@
         <v>167</v>
       </c>
       <c r="C147" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D147" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E147">
         <v>40.374000000000002</v>
@@ -9189,10 +9197,10 @@
         <v>167</v>
       </c>
       <c r="C150" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D150" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E150">
         <v>35.073999999999998</v>
@@ -9242,7 +9250,7 @@
         <v>125</v>
       </c>
       <c r="D151" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E151">
         <v>33.579000000000001</v>
@@ -9339,7 +9347,7 @@
         <v>167</v>
       </c>
       <c r="C153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D153" t="s">
         <v>233</v>
@@ -9589,7 +9597,7 @@
         <v>167</v>
       </c>
       <c r="C158" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D158" t="s">
         <v>112</v>
@@ -9692,7 +9700,7 @@
         <v>295</v>
       </c>
       <c r="D160" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E160">
         <v>47.921999999999997</v>
@@ -9739,7 +9747,7 @@
         <v>167</v>
       </c>
       <c r="C161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D161" t="s">
         <v>302</v>
@@ -9792,7 +9800,7 @@
         <v>145</v>
       </c>
       <c r="D162" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E162" t="s">
         <v>288</v>
@@ -9839,7 +9847,7 @@
         <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D163" t="s">
         <v>254</v>
@@ -9889,7 +9897,7 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D164" t="s">
         <v>299</v>
@@ -9989,7 +9997,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D166" t="s">
         <v>162</v>
@@ -10192,7 +10200,7 @@
         <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E170" t="s">
         <v>288</v>
@@ -10242,7 +10250,7 @@
         <v>93</v>
       </c>
       <c r="D171" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E171">
         <v>15.1</v>
@@ -10342,7 +10350,7 @@
         <v>296</v>
       </c>
       <c r="D173" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E173">
         <v>39.996000000000002</v>
@@ -10442,7 +10450,7 @@
         <v>90</v>
       </c>
       <c r="D175" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E175">
         <v>29.27</v>
@@ -10539,10 +10547,10 @@
         <v>167</v>
       </c>
       <c r="C177" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D177" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E177">
         <v>10.3</v>
@@ -10592,7 +10600,7 @@
         <v>115</v>
       </c>
       <c r="D178" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E178">
         <v>20.623999999999999</v>
@@ -10639,10 +10647,10 @@
         <v>167</v>
       </c>
       <c r="C179" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D179" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E179" t="s">
         <v>288</v>
@@ -10692,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E180">
         <v>28.253</v>
@@ -10739,10 +10747,10 @@
         <v>167</v>
       </c>
       <c r="C181" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D181" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E181">
         <v>24.9</v>
@@ -10789,7 +10797,7 @@
         <v>167</v>
       </c>
       <c r="C182" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D182" t="s">
         <v>247</v>
@@ -10889,7 +10897,7 @@
         <v>167</v>
       </c>
       <c r="C184" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D184" t="s">
         <v>306</v>
@@ -10939,7 +10947,7 @@
         <v>167</v>
       </c>
       <c r="C185" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D185" t="s">
         <v>229</v>
@@ -10989,10 +10997,10 @@
         <v>167</v>
       </c>
       <c r="C186" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D186" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E186">
         <v>14.5</v>
@@ -11192,7 +11200,7 @@
         <v>153</v>
       </c>
       <c r="D190" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E190">
         <v>44.061</v>
@@ -11239,7 +11247,7 @@
         <v>167</v>
       </c>
       <c r="C191" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D191" t="s">
         <v>292</v>
@@ -11389,10 +11397,10 @@
         <v>167</v>
       </c>
       <c r="C194" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D194" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E194">
         <v>31.091999999999999</v>
@@ -11439,7 +11447,7 @@
         <v>167</v>
       </c>
       <c r="C195" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D195" t="s">
         <v>44</v>
@@ -11489,7 +11497,7 @@
         <v>167</v>
       </c>
       <c r="C196" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D196" t="s">
         <v>76</v>
@@ -11539,7 +11547,7 @@
         <v>167</v>
       </c>
       <c r="C197" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D197" t="s">
         <v>284</v>
@@ -11589,7 +11597,7 @@
         <v>167</v>
       </c>
       <c r="C198" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D198" t="s">
         <v>30</v>
@@ -11639,10 +11647,10 @@
         <v>167</v>
       </c>
       <c r="C199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D199" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E199" t="s">
         <v>288</v>
@@ -11692,7 +11700,7 @@
         <v>94</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E200" t="s">
         <v>288</v>
@@ -11742,7 +11750,7 @@
         <v>211</v>
       </c>
       <c r="D201" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E201">
         <v>49.792999999999999</v>
@@ -12089,10 +12097,10 @@
         <v>167</v>
       </c>
       <c r="C208" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D208" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E208">
         <v>36.076000000000001</v>
@@ -12192,7 +12200,7 @@
         <v>231</v>
       </c>
       <c r="D210" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E210">
         <v>28.687999999999999</v>
@@ -12392,7 +12400,7 @@
         <v>297</v>
       </c>
       <c r="D214" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E214">
         <v>46.389000000000003</v>
